--- a/clean_data/party_alignment.xlsx
+++ b/clean_data/party_alignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniztokmakoglu/UChicago/Autumn 2021/SoE/Project/turkish_election_analysis/clean_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31C760D-C5FB-FF43-88C6-4ADA282BC98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF594D5-558C-8A40-B744-1225E73AE55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28420" yWindow="7840" windowWidth="27640" windowHeight="16300" xr2:uid="{739D45AF-F92B-5347-B356-44451635B62C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{739D45AF-F92B-5347-B356-44451635B62C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>party</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>populist</t>
+  </si>
+  <si>
+    <t>akp</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>dp</t>
   </si>
 </sst>
 </file>
@@ -463,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348C6428-6477-3949-B30B-B738C82784FF}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B8" activeCellId="1" sqref="L11 B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,6 +933,102 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
